--- a/biology/Botanique/Hétéranthère_litigieuse/Hétéranthère_litigieuse.xlsx
+++ b/biology/Botanique/Hétéranthère_litigieuse/Hétéranthère_litigieuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9ranth%C3%A8re_litigieuse</t>
+          <t>Hétéranthère_litigieuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteranthera dubia, l’Hétéranthère litigieuse ou Hétéranthère douteuse, est une espèce de plante aquatique submergée à tiges grêles, de la famille des Pontédériacées.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9ranth%C3%A8re_litigieuse</t>
+          <t>Hétéranthère_litigieuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante a un aspect très filiforme dans son ensemble. Les tiges, de 30 à 60 cm de long, s'enracinent aux nœuds. Les feuilles sont linéaires, à nervures parallèles et sont dotées d'une gaine stipuliforme[1].
-La fleur, jaune clair, atteint rarement la surface de l'eau. Les étamines sont presque de longueur égale. La floraison est estivale[1].
-Le fruit est une capsule contenant de nombreuses graines[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante a un aspect très filiforme dans son ensemble. Les tiges, de 30 à 60 cm de long, s'enracinent aux nœuds. Les feuilles sont linéaires, à nervures parallèles et sont dotées d'une gaine stipuliforme.
+La fleur, jaune clair, atteint rarement la surface de l'eau. Les étamines sont presque de longueur égale. La floraison est estivale.
+Le fruit est une capsule contenant de nombreuses graines.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9ranth%C3%A8re_litigieuse</t>
+          <t>Hétéranthère_litigieuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hétéranthère litigieuse préfère les eaux tranquilles et les rivages. Elle est présente dans l'ouest du Québec[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hétéranthère litigieuse préfère les eaux tranquilles et les rivages. Elle est présente dans l'ouest du Québec.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9ranth%C3%A8re_litigieuse</t>
+          <t>Hétéranthère_litigieuse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,14 @@
           <t>Taxonomie et classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Heteranthera dubia (Jacq.) MacMill.[2].
-L'espèce a été initialement classée dans le genre Commelina sous le basionyme Commelina dubia Jacq.[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Hétéranthère litigieuse[2], Hétéranthère douteuse[2].
-Heteranthera dubia a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Heteranthera dubia (Jacq.) MacMill..
+L'espèce a été initialement classée dans le genre Commelina sous le basionyme Commelina dubia Jacq..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Hétéranthère litigieuse, Hétéranthère douteuse.
+Heteranthera dubia a pour synonymes :
 Commelina dubia Jacq.
 Heteranthera dubia f. terrestre (Farw.) Vict.
 Heteranthera graminea (Michx.) Vahl
